--- a/dictée/Book1.xlsx
+++ b/dictée/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avril\Desktop\projet-orthographe\dictée\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3CA5FF-57D9-4E09-BF21-8C14CF6E6EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB22CCF9-CB3E-416E-9267-ECA5FA734CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{208BC211-42AE-43FC-A73A-87CC2C9B2A8A}"/>
   </bookViews>
@@ -18,21 +18,10 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$34</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -612,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35B4ACF3-DED5-48E9-849D-CFF89483127A}">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection sqref="A1:C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
